--- a/config/sort_game_category_card_config.xlsx
+++ b/config/sort_game_category_card_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12820"/>
+    <workbookView windowWidth="29400" windowHeight="12740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2704,7 +2704,7 @@
     <t>TID_SORT_GAME_CATEGORY_PIC_CHESS</t>
   </si>
   <si>
-    <t>[PAWN_PIC_CHESS_1,ROOK_PIC_CHESS_1,KNIGHT_PIC_CHESS_1,BISHOP_PIC_CHESS_1,QUEEN_PIC_CHESS_1,KING_PIC_CHESS_1,CHESSBOARD_PIC_CHESS_1,CHESS_CLOCK_PIC_CHESS_1]</t>
+    <t>[PAWN_PIC_CHESS_1,ROOK_PIC_CHESS_1,KNIGHT_PIC_CHESS_1,BISHOP_PIC_CHESS_1]</t>
   </si>
   <si>
     <t>PIC_SPORTS_2</t>
@@ -2773,7 +2773,7 @@
     <t>TID_SORT_GAME_CATEGORY_PIC_GARMENTS</t>
   </si>
   <si>
-    <t>[GLOVES_PIC_GARMENTS_7,DRESS_PIC_GARMENTS_7,PANTS_PIC_GARMENTS_7,SHIRT_PIC_GARMENTS_7,PANTIES_PIC_GARMENTS_7,COAT_PIC_GARMENTS_7,JACKET_PIC_GARMENTS_7,SKIRT_PIC_GARMENTS_7]</t>
+    <t>[GLOVES_PIC_GARMENTS_7,DRESS_PIC_GARMENTS_7,PANTS_PIC_GARMENTS_7,SHIRT_PIC_GARMENTS_7]</t>
   </si>
   <si>
     <t>PIC_VEGGIE_8</t>
@@ -2797,7 +2797,7 @@
     <t>TID_SORT_GAME_CATEGORY_PIC_FRUITS</t>
   </si>
   <si>
-    <t>[ORANGE_PIC_FRUITS_9,KIWI_PIC_FRUITS_9,BANANA_PIC_FRUITS_9,APPLE_PIC_FRUITS_9,POMEGRANATE_PIC_FRUITS_9,PEACH_PIC_FRUITS_9,PINEAPPLE_PIC_FRUITS_9,WATERMELON_PIC_FRUITS_9]</t>
+    <t>[ORANGE_PIC_FRUITS_9,KIWI_PIC_FRUITS_9,BANANA_PIC_FRUITS_9,APPLE_PIC_FRUITS_9]</t>
   </si>
   <si>
     <t>PIC_CHAIR_10</t>
@@ -4596,8 +4596,8 @@
   <sheetPr/>
   <dimension ref="A1:F303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -8480,7 +8480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" ht="213.75" spans="1:5">
+    <row r="224" ht="107.75" spans="1:5">
       <c r="A224" s="4" t="s">
         <v>889</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" ht="228.75" spans="1:5">
+    <row r="230" ht="122.75" spans="1:5">
       <c r="A230" s="4" t="s">
         <v>911</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" ht="228.75" spans="1:5">
+    <row r="232" ht="107.75" spans="1:5">
       <c r="A232" s="4" t="s">
         <v>919</v>
       </c>

--- a/config/sort_game_category_card_config.xlsx
+++ b/config/sort_game_category_card_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12740"/>
+    <workbookView windowWidth="28000" windowHeight="13340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="1196">
   <si>
     <t>id</t>
   </si>
@@ -2698,6 +2698,30 @@
     <t>[GENE_WORD_GENETICS_1060,DNA_WORD_GENETICS_1060,GENOME_WORD_GENETICS_1060]</t>
   </si>
   <si>
+    <t>WORD_SCREEN_1030</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_CATEGORY_WORD_SCREEN</t>
+  </si>
+  <si>
+    <t>[TV_WORD_SCREEN_1030,ATM_WORD_SCREEN_1030,E_READER_WORD_SCREEN_1030]</t>
+  </si>
+  <si>
+    <t>WORD_ALARM_1031</t>
+  </si>
+  <si>
+    <t>Alarm</t>
+  </si>
+  <si>
+    <t>TID_SORT_GAME_CATEGORY_WORD_ALARM</t>
+  </si>
+  <si>
+    <t>[BUZZER_WORD_ALARM_1031,BEEP_WORD_ALARM_1031,RUSH_WORD_ALARM_1031]</t>
+  </si>
+  <si>
     <t>PIC_CHESS_1</t>
   </si>
   <si>
@@ -3443,9 +3467,6 @@
   </si>
   <si>
     <t>PIC_SCREEN_68</t>
-  </si>
-  <si>
-    <t>Screen</t>
   </si>
   <si>
     <t>TID_SORT_GAME_CATEGORY_PIC_SCREEN</t>
@@ -4594,13 +4615,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="A303" sqref="A303"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -4684,7 +4705,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" ht="107.75" spans="1:6">
+    <row r="6" ht="107.75" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -4700,9 +4721,10 @@
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" ht="107.75" spans="1:6">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" ht="107.75" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -4718,9 +4740,10 @@
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" ht="122.75" spans="1:6">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" ht="122.75" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -4736,9 +4759,10 @@
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" ht="183.75" spans="1:6">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" ht="183.75" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -4754,9 +4778,10 @@
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" ht="122.75" spans="1:6">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="122.75" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -4772,9 +4797,10 @@
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" ht="76.75" spans="1:6">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="76.75" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -4790,9 +4816,10 @@
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" ht="107.75" spans="1:6">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" ht="107.75" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -4808,9 +4835,10 @@
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" ht="122.75" spans="1:6">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" ht="122.75" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -4826,9 +4854,10 @@
       <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" ht="122.75" spans="1:6">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" ht="122.75" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
@@ -4844,9 +4873,10 @@
       <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" ht="137.75" spans="1:6">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" ht="137.75" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
@@ -4862,9 +4892,10 @@
       <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" ht="92.75" spans="1:6">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" ht="92.75" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -4880,9 +4911,10 @@
       <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" ht="244.75" spans="1:6">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" ht="244.75" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -4898,9 +4930,10 @@
       <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" ht="183.75" spans="1:6">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" ht="183.75" spans="1:7">
       <c r="A18" s="4" t="s">
         <v>65</v>
       </c>
@@ -4916,9 +4949,10 @@
       <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" ht="198.75" spans="1:6">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" ht="198.75" spans="1:7">
       <c r="A19" s="4" t="s">
         <v>69</v>
       </c>
@@ -4934,9 +4968,10 @@
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" ht="137.75" spans="1:6">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" ht="137.75" spans="1:7">
       <c r="A20" s="4" t="s">
         <v>73</v>
       </c>
@@ -4952,9 +4987,10 @@
       <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" ht="107.75" spans="1:6">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" ht="107.75" spans="1:7">
       <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
@@ -4970,9 +5006,10 @@
       <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" ht="92.75" spans="1:6">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" ht="92.75" spans="1:7">
       <c r="A22" s="4" t="s">
         <v>81</v>
       </c>
@@ -4988,9 +5025,10 @@
       <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" ht="228.75" spans="1:6">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" ht="228.75" spans="1:7">
       <c r="A23" s="4" t="s">
         <v>85</v>
       </c>
@@ -5006,9 +5044,10 @@
       <c r="E23" s="6">
         <v>1</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" ht="213.75" spans="1:6">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" ht="213.75" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>89</v>
       </c>
@@ -5024,9 +5063,10 @@
       <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" ht="198.75" spans="1:6">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" ht="198.75" spans="1:7">
       <c r="A25" s="4" t="s">
         <v>93</v>
       </c>
@@ -5042,9 +5082,10 @@
       <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" ht="137.75" spans="1:6">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" ht="137.75" spans="1:7">
       <c r="A26" s="4" t="s">
         <v>97</v>
       </c>
@@ -5060,9 +5101,10 @@
       <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" ht="122.75" spans="1:6">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" ht="122.75" spans="1:7">
       <c r="A27" s="4" t="s">
         <v>101</v>
       </c>
@@ -5078,9 +5120,10 @@
       <c r="E27" s="6">
         <v>1</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" ht="92.75" spans="1:6">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" ht="92.75" spans="1:7">
       <c r="A28" s="4" t="s">
         <v>105</v>
       </c>
@@ -5096,9 +5139,10 @@
       <c r="E28" s="6">
         <v>1</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" ht="228.75" spans="1:6">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" ht="228.75" spans="1:7">
       <c r="A29" s="4" t="s">
         <v>109</v>
       </c>
@@ -5114,9 +5158,10 @@
       <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" ht="213.75" spans="1:6">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" ht="213.75" spans="1:7">
       <c r="A30" s="4" t="s">
         <v>113</v>
       </c>
@@ -5132,9 +5177,10 @@
       <c r="E30" s="6">
         <v>1</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" ht="122.75" spans="1:6">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" ht="122.75" spans="1:7">
       <c r="A31" s="4" t="s">
         <v>117</v>
       </c>
@@ -5150,9 +5196,10 @@
       <c r="E31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" ht="122.75" spans="1:6">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" ht="122.75" spans="1:7">
       <c r="A32" s="4" t="s">
         <v>121</v>
       </c>
@@ -5168,9 +5215,10 @@
       <c r="E32" s="6">
         <v>1</v>
       </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" ht="107.75" spans="1:6">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" ht="107.75" spans="1:7">
       <c r="A33" s="4" t="s">
         <v>125</v>
       </c>
@@ -5186,9 +5234,10 @@
       <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" ht="92.75" spans="1:6">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" ht="92.75" spans="1:7">
       <c r="A34" s="4" t="s">
         <v>129</v>
       </c>
@@ -5204,9 +5253,10 @@
       <c r="E34" s="6">
         <v>1</v>
       </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" ht="92.75" spans="1:6">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" ht="92.75" spans="1:7">
       <c r="A35" s="4" t="s">
         <v>133</v>
       </c>
@@ -5222,9 +5272,10 @@
       <c r="E35" s="6">
         <v>1</v>
       </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" ht="228.75" spans="1:6">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" ht="228.75" spans="1:7">
       <c r="A36" s="4" t="s">
         <v>137</v>
       </c>
@@ -5240,9 +5291,10 @@
       <c r="E36" s="6">
         <v>1</v>
       </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" ht="168.75" spans="1:6">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" ht="168.75" spans="1:7">
       <c r="A37" s="4" t="s">
         <v>141</v>
       </c>
@@ -5258,9 +5310,10 @@
       <c r="E37" s="6">
         <v>1</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" ht="183.75" spans="1:6">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" ht="183.75" spans="1:7">
       <c r="A38" s="4" t="s">
         <v>145</v>
       </c>
@@ -5276,9 +5329,10 @@
       <c r="E38" s="6">
         <v>1</v>
       </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" ht="137.75" spans="1:6">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" ht="137.75" spans="1:7">
       <c r="A39" s="4" t="s">
         <v>149</v>
       </c>
@@ -5294,9 +5348,10 @@
       <c r="E39" s="6">
         <v>1</v>
       </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" ht="274.75" spans="1:6">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" ht="274.75" spans="1:7">
       <c r="A40" s="4" t="s">
         <v>153</v>
       </c>
@@ -5312,9 +5367,10 @@
       <c r="E40" s="6">
         <v>1</v>
       </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" ht="198.75" spans="1:6">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" ht="198.75" spans="1:7">
       <c r="A41" s="4" t="s">
         <v>157</v>
       </c>
@@ -5330,9 +5386,10 @@
       <c r="E41" s="6">
         <v>1</v>
       </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" ht="107.75" spans="1:6">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" ht="107.75" spans="1:7">
       <c r="A42" s="4" t="s">
         <v>161</v>
       </c>
@@ -5348,9 +5405,10 @@
       <c r="E42" s="6">
         <v>1</v>
       </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" ht="92.75" spans="1:6">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" ht="92.75" spans="1:7">
       <c r="A43" s="4" t="s">
         <v>165</v>
       </c>
@@ -5366,9 +5424,10 @@
       <c r="E43" s="6">
         <v>1</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" ht="92.75" spans="1:6">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" ht="92.75" spans="1:7">
       <c r="A44" s="4" t="s">
         <v>169</v>
       </c>
@@ -5384,9 +5443,10 @@
       <c r="E44" s="6">
         <v>1</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" ht="213.75" spans="1:6">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" ht="213.75" spans="1:7">
       <c r="A45" s="4" t="s">
         <v>173</v>
       </c>
@@ -5402,9 +5462,10 @@
       <c r="E45" s="6">
         <v>1</v>
       </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" ht="183.75" spans="1:6">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" ht="183.75" spans="1:7">
       <c r="A46" s="4" t="s">
         <v>177</v>
       </c>
@@ -5420,9 +5481,10 @@
       <c r="E46" s="6">
         <v>1</v>
       </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" ht="122.75" spans="1:6">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" ht="122.75" spans="1:7">
       <c r="A47" s="4" t="s">
         <v>181</v>
       </c>
@@ -5438,9 +5500,10 @@
       <c r="E47" s="6">
         <v>1</v>
       </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" ht="92.75" spans="1:6">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" ht="92.75" spans="1:7">
       <c r="A48" s="4" t="s">
         <v>185</v>
       </c>
@@ -5456,9 +5519,10 @@
       <c r="E48" s="6">
         <v>1</v>
       </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" ht="76.75" spans="1:6">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" ht="76.75" spans="1:7">
       <c r="A49" s="4" t="s">
         <v>189</v>
       </c>
@@ -5474,9 +5538,10 @@
       <c r="E49" s="6">
         <v>1</v>
       </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" ht="244.75" spans="1:6">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" ht="244.75" spans="1:7">
       <c r="A50" s="4" t="s">
         <v>193</v>
       </c>
@@ -5492,9 +5557,10 @@
       <c r="E50" s="6">
         <v>1</v>
       </c>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" ht="244.75" spans="1:6">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" ht="244.75" spans="1:7">
       <c r="A51" s="4" t="s">
         <v>197</v>
       </c>
@@ -5510,9 +5576,10 @@
       <c r="E51" s="6">
         <v>1</v>
       </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" ht="213.75" spans="1:6">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" ht="213.75" spans="1:7">
       <c r="A52" s="4" t="s">
         <v>201</v>
       </c>
@@ -5528,9 +5595,10 @@
       <c r="E52" s="6">
         <v>1</v>
       </c>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" ht="92.75" spans="1:6">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" ht="92.75" spans="1:7">
       <c r="A53" s="4" t="s">
         <v>205</v>
       </c>
@@ -5546,9 +5614,10 @@
       <c r="E53" s="6">
         <v>1</v>
       </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" ht="107.75" spans="1:6">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" ht="107.75" spans="1:7">
       <c r="A54" s="4" t="s">
         <v>209</v>
       </c>
@@ -5564,9 +5633,10 @@
       <c r="E54" s="6">
         <v>1</v>
       </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" ht="259.75" spans="1:6">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" ht="259.75" spans="1:7">
       <c r="A55" s="4" t="s">
         <v>213</v>
       </c>
@@ -5582,9 +5652,10 @@
       <c r="E55" s="6">
         <v>1</v>
       </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" ht="92.75" spans="1:6">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" ht="92.75" spans="1:7">
       <c r="A56" s="4" t="s">
         <v>217</v>
       </c>
@@ -5600,9 +5671,10 @@
       <c r="E56" s="6">
         <v>1</v>
       </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" ht="289.75" spans="1:6">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" ht="289.75" spans="1:7">
       <c r="A57" s="4" t="s">
         <v>221</v>
       </c>
@@ -5618,9 +5690,10 @@
       <c r="E57" s="6">
         <v>1</v>
       </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" ht="259.75" spans="1:6">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" ht="259.75" spans="1:7">
       <c r="A58" s="4" t="s">
         <v>225</v>
       </c>
@@ -5636,9 +5709,10 @@
       <c r="E58" s="6">
         <v>1</v>
       </c>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" ht="198.75" spans="1:6">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" ht="198.75" spans="1:7">
       <c r="A59" s="4" t="s">
         <v>229</v>
       </c>
@@ -5654,9 +5728,10 @@
       <c r="E59" s="6">
         <v>1</v>
       </c>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" ht="137.75" spans="1:6">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" ht="137.75" spans="1:7">
       <c r="A60" s="4" t="s">
         <v>233</v>
       </c>
@@ -5672,9 +5747,10 @@
       <c r="E60" s="6">
         <v>1</v>
       </c>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" ht="137.75" spans="1:6">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" ht="137.75" spans="1:7">
       <c r="A61" s="4" t="s">
         <v>237</v>
       </c>
@@ -5690,9 +5766,10 @@
       <c r="E61" s="6">
         <v>1</v>
       </c>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" ht="107.75" spans="1:6">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" ht="107.75" spans="1:7">
       <c r="A62" s="4" t="s">
         <v>241</v>
       </c>
@@ -5708,9 +5785,10 @@
       <c r="E62" s="6">
         <v>1</v>
       </c>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" ht="259.75" spans="1:6">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" ht="259.75" spans="1:7">
       <c r="A63" s="4" t="s">
         <v>245</v>
       </c>
@@ -5726,9 +5804,10 @@
       <c r="E63" s="6">
         <v>1</v>
       </c>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" ht="198.75" spans="1:6">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" ht="198.75" spans="1:7">
       <c r="A64" s="4" t="s">
         <v>249</v>
       </c>
@@ -5744,9 +5823,10 @@
       <c r="E64" s="6">
         <v>1</v>
       </c>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" ht="198.75" spans="1:6">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" ht="198.75" spans="1:7">
       <c r="A65" s="4" t="s">
         <v>253</v>
       </c>
@@ -5762,9 +5842,10 @@
       <c r="E65" s="6">
         <v>1</v>
       </c>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" ht="137.75" spans="1:6">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" ht="137.75" spans="1:7">
       <c r="A66" s="4" t="s">
         <v>257</v>
       </c>
@@ -5780,9 +5861,10 @@
       <c r="E66" s="6">
         <v>1</v>
       </c>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" ht="92.75" spans="1:6">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" ht="92.75" spans="1:7">
       <c r="A67" s="4" t="s">
         <v>261</v>
       </c>
@@ -5798,9 +5880,10 @@
       <c r="E67" s="6">
         <v>1</v>
       </c>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" ht="92.75" spans="1:6">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" ht="92.75" spans="1:7">
       <c r="A68" s="4" t="s">
         <v>265</v>
       </c>
@@ -5816,9 +5899,10 @@
       <c r="E68" s="6">
         <v>1</v>
       </c>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" ht="137.75" spans="1:6">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" ht="137.75" spans="1:7">
       <c r="A69" s="4" t="s">
         <v>269</v>
       </c>
@@ -5834,9 +5918,10 @@
       <c r="E69" s="6">
         <v>1</v>
       </c>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" ht="107.75" spans="1:6">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" ht="107.75" spans="1:7">
       <c r="A70" s="4" t="s">
         <v>273</v>
       </c>
@@ -5852,9 +5937,10 @@
       <c r="E70" s="6">
         <v>1</v>
       </c>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" ht="107.75" spans="1:6">
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" ht="107.75" spans="1:7">
       <c r="A71" s="4" t="s">
         <v>277</v>
       </c>
@@ -5870,9 +5956,10 @@
       <c r="E71" s="6">
         <v>1</v>
       </c>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" ht="244.75" spans="1:6">
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" ht="244.75" spans="1:7">
       <c r="A72" s="4" t="s">
         <v>281</v>
       </c>
@@ -5888,9 +5975,10 @@
       <c r="E72" s="6">
         <v>1</v>
       </c>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" ht="213.75" spans="1:6">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" ht="213.75" spans="1:7">
       <c r="A73" s="4" t="s">
         <v>285</v>
       </c>
@@ -5906,9 +5994,10 @@
       <c r="E73" s="6">
         <v>1</v>
       </c>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" ht="137.75" spans="1:6">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" ht="137.75" spans="1:7">
       <c r="A74" s="4" t="s">
         <v>289</v>
       </c>
@@ -5924,9 +6013,10 @@
       <c r="E74" s="6">
         <v>1</v>
       </c>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" ht="107.75" spans="1:6">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" ht="107.75" spans="1:7">
       <c r="A75" s="4" t="s">
         <v>293</v>
       </c>
@@ -5942,9 +6032,10 @@
       <c r="E75" s="6">
         <v>1</v>
       </c>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" ht="107.75" spans="1:6">
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" ht="107.75" spans="1:7">
       <c r="A76" s="4" t="s">
         <v>297</v>
       </c>
@@ -5960,9 +6051,10 @@
       <c r="E76" s="6">
         <v>1</v>
       </c>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" ht="289.75" spans="1:6">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" ht="289.75" spans="1:7">
       <c r="A77" s="4" t="s">
         <v>301</v>
       </c>
@@ -5978,9 +6070,10 @@
       <c r="E77" s="6">
         <v>1</v>
       </c>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" ht="244.75" spans="1:6">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" ht="244.75" spans="1:7">
       <c r="A78" s="4" t="s">
         <v>305</v>
       </c>
@@ -5996,9 +6089,10 @@
       <c r="E78" s="6">
         <v>1</v>
       </c>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" ht="122.75" spans="1:6">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" ht="122.75" spans="1:7">
       <c r="A79" s="4" t="s">
         <v>309</v>
       </c>
@@ -6014,9 +6108,10 @@
       <c r="E79" s="6">
         <v>1</v>
       </c>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" ht="137.75" spans="1:6">
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" ht="137.75" spans="1:7">
       <c r="A80" s="4" t="s">
         <v>313</v>
       </c>
@@ -6032,9 +6127,10 @@
       <c r="E80" s="6">
         <v>1</v>
       </c>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" ht="92.75" spans="1:6">
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" ht="92.75" spans="1:7">
       <c r="A81" s="4" t="s">
         <v>317</v>
       </c>
@@ -6050,9 +6146,10 @@
       <c r="E81" s="6">
         <v>1</v>
       </c>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" ht="244.75" spans="1:6">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" ht="244.75" spans="1:7">
       <c r="A82" s="4" t="s">
         <v>321</v>
       </c>
@@ -6068,9 +6165,10 @@
       <c r="E82" s="6">
         <v>1</v>
       </c>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" ht="137.75" spans="1:6">
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" ht="137.75" spans="1:7">
       <c r="A83" s="4" t="s">
         <v>325</v>
       </c>
@@ -6086,9 +6184,10 @@
       <c r="E83" s="6">
         <v>1</v>
       </c>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" ht="122.75" spans="1:6">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" ht="122.75" spans="1:7">
       <c r="A84" s="4" t="s">
         <v>329</v>
       </c>
@@ -6104,9 +6203,10 @@
       <c r="E84" s="6">
         <v>1</v>
       </c>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" ht="152.75" spans="1:6">
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" ht="152.75" spans="1:7">
       <c r="A85" s="4" t="s">
         <v>333</v>
       </c>
@@ -6122,9 +6222,10 @@
       <c r="E85" s="6">
         <v>1</v>
       </c>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" ht="107.75" spans="1:6">
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" ht="107.75" spans="1:7">
       <c r="A86" s="4" t="s">
         <v>337</v>
       </c>
@@ -6140,9 +6241,10 @@
       <c r="E86" s="6">
         <v>1</v>
       </c>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" ht="92.75" spans="1:6">
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" ht="92.75" spans="1:7">
       <c r="A87" s="4" t="s">
         <v>341</v>
       </c>
@@ -6158,9 +6260,10 @@
       <c r="E87" s="6">
         <v>1</v>
       </c>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" ht="274.75" spans="1:6">
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" ht="274.75" spans="1:7">
       <c r="A88" s="4" t="s">
         <v>345</v>
       </c>
@@ -6176,9 +6279,10 @@
       <c r="E88" s="6">
         <v>1</v>
       </c>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" ht="198.75" spans="1:6">
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" ht="198.75" spans="1:7">
       <c r="A89" s="4" t="s">
         <v>349</v>
       </c>
@@ -6194,9 +6298,10 @@
       <c r="E89" s="6">
         <v>1</v>
       </c>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" ht="198.75" spans="1:6">
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" ht="198.75" spans="1:7">
       <c r="A90" s="4" t="s">
         <v>353</v>
       </c>
@@ -6212,9 +6317,10 @@
       <c r="E90" s="6">
         <v>1</v>
       </c>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" ht="92.75" spans="1:6">
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" ht="92.75" spans="1:7">
       <c r="A91" s="4" t="s">
         <v>357</v>
       </c>
@@ -6230,9 +6336,10 @@
       <c r="E91" s="6">
         <v>1</v>
       </c>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" ht="107.75" spans="1:6">
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" ht="107.75" spans="1:7">
       <c r="A92" s="4" t="s">
         <v>361</v>
       </c>
@@ -6248,9 +6355,10 @@
       <c r="E92" s="6">
         <v>1</v>
       </c>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" ht="198.75" spans="1:6">
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" ht="198.75" spans="1:7">
       <c r="A93" s="4" t="s">
         <v>365</v>
       </c>
@@ -6266,9 +6374,10 @@
       <c r="E93" s="6">
         <v>1</v>
       </c>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" ht="228.75" spans="1:6">
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" ht="228.75" spans="1:7">
       <c r="A94" s="4" t="s">
         <v>369</v>
       </c>
@@ -6284,9 +6393,10 @@
       <c r="E94" s="6">
         <v>1</v>
       </c>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" ht="152.75" spans="1:6">
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" ht="152.75" spans="1:7">
       <c r="A95" s="4" t="s">
         <v>373</v>
       </c>
@@ -6302,9 +6412,10 @@
       <c r="E95" s="6">
         <v>1</v>
       </c>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" ht="107.75" spans="1:5">
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" ht="107.75" spans="1:7">
       <c r="A96" s="4" t="s">
         <v>377</v>
       </c>
@@ -6320,8 +6431,10 @@
       <c r="E96" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" ht="92.75" spans="1:5">
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" ht="92.75" spans="1:7">
       <c r="A97" s="4" t="s">
         <v>381</v>
       </c>
@@ -6337,8 +6450,10 @@
       <c r="E97" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" ht="274.75" spans="1:5">
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" ht="274.75" spans="1:7">
       <c r="A98" s="4" t="s">
         <v>385</v>
       </c>
@@ -6354,8 +6469,10 @@
       <c r="E98" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" ht="213.75" spans="1:5">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" ht="213.75" spans="1:7">
       <c r="A99" s="4" t="s">
         <v>389</v>
       </c>
@@ -6371,8 +6488,10 @@
       <c r="E99" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" ht="168.75" spans="1:5">
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" ht="168.75" spans="1:7">
       <c r="A100" s="4" t="s">
         <v>393</v>
       </c>
@@ -6388,8 +6507,10 @@
       <c r="E100" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" ht="137.75" spans="1:5">
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" ht="137.75" spans="1:7">
       <c r="A101" s="4" t="s">
         <v>397</v>
       </c>
@@ -6405,8 +6526,10 @@
       <c r="E101" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" ht="107.75" spans="1:5">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" ht="107.75" spans="1:7">
       <c r="A102" s="4" t="s">
         <v>401</v>
       </c>
@@ -6422,8 +6545,10 @@
       <c r="E102" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" ht="259.75" spans="1:5">
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" ht="259.75" spans="1:7">
       <c r="A103" s="4" t="s">
         <v>405</v>
       </c>
@@ -6439,8 +6564,10 @@
       <c r="E103" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" ht="107.75" spans="1:5">
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" ht="107.75" spans="1:7">
       <c r="A104" s="4" t="s">
         <v>409</v>
       </c>
@@ -6456,8 +6583,10 @@
       <c r="E104" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" ht="137.75" spans="1:5">
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" ht="137.75" spans="1:7">
       <c r="A105" s="4" t="s">
         <v>413</v>
       </c>
@@ -6473,8 +6602,10 @@
       <c r="E105" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" ht="122.75" spans="1:5">
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" ht="122.75" spans="1:7">
       <c r="A106" s="4" t="s">
         <v>417</v>
       </c>
@@ -6490,8 +6621,10 @@
       <c r="E106" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" ht="122.75" spans="1:5">
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" ht="122.75" spans="1:7">
       <c r="A107" s="4" t="s">
         <v>421</v>
       </c>
@@ -6507,8 +6640,10 @@
       <c r="E107" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" ht="198.75" spans="1:5">
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" ht="198.75" spans="1:7">
       <c r="A108" s="4" t="s">
         <v>425</v>
       </c>
@@ -6524,8 +6659,10 @@
       <c r="E108" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" ht="137.75" spans="1:5">
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" ht="137.75" spans="1:7">
       <c r="A109" s="4" t="s">
         <v>429</v>
       </c>
@@ -6541,8 +6678,10 @@
       <c r="E109" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" ht="107.75" spans="1:5">
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" ht="107.75" spans="1:7">
       <c r="A110" s="4" t="s">
         <v>433</v>
       </c>
@@ -6558,8 +6697,10 @@
       <c r="E110" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" ht="228.75" spans="1:5">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" ht="228.75" spans="1:7">
       <c r="A111" s="4" t="s">
         <v>437</v>
       </c>
@@ -6575,8 +6716,10 @@
       <c r="E111" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" ht="137.75" spans="1:5">
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" ht="137.75" spans="1:7">
       <c r="A112" s="4" t="s">
         <v>441</v>
       </c>
@@ -6592,8 +6735,10 @@
       <c r="E112" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" ht="137.75" spans="1:5">
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" ht="137.75" spans="1:7">
       <c r="A113" s="4" t="s">
         <v>445</v>
       </c>
@@ -6609,8 +6754,10 @@
       <c r="E113" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" ht="137.75" spans="1:5">
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" ht="137.75" spans="1:7">
       <c r="A114" s="4" t="s">
         <v>449</v>
       </c>
@@ -6626,8 +6773,10 @@
       <c r="E114" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" ht="122.75" spans="1:5">
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" ht="122.75" spans="1:7">
       <c r="A115" s="4" t="s">
         <v>453</v>
       </c>
@@ -6643,8 +6792,10 @@
       <c r="E115" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" ht="107.75" spans="1:5">
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" ht="107.75" spans="1:7">
       <c r="A116" s="4" t="s">
         <v>457</v>
       </c>
@@ -6660,8 +6811,10 @@
       <c r="E116" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" ht="274.75" spans="1:5">
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" ht="274.75" spans="1:7">
       <c r="A117" s="4" t="s">
         <v>461</v>
       </c>
@@ -6677,8 +6830,10 @@
       <c r="E117" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" ht="183.75" spans="1:5">
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" ht="183.75" spans="1:7">
       <c r="A118" s="4" t="s">
         <v>465</v>
       </c>
@@ -6694,8 +6849,10 @@
       <c r="E118" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" ht="152.75" spans="1:5">
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" ht="152.75" spans="1:7">
       <c r="A119" s="4" t="s">
         <v>469</v>
       </c>
@@ -6711,8 +6868,10 @@
       <c r="E119" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" ht="137.75" spans="1:5">
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" ht="137.75" spans="1:7">
       <c r="A120" s="4" t="s">
         <v>473</v>
       </c>
@@ -6728,8 +6887,10 @@
       <c r="E120" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" ht="107.75" spans="1:5">
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" ht="107.75" spans="1:7">
       <c r="A121" s="4" t="s">
         <v>477</v>
       </c>
@@ -6745,8 +6906,10 @@
       <c r="E121" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" ht="92.75" spans="1:5">
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" ht="92.75" spans="1:7">
       <c r="A122" s="4" t="s">
         <v>481</v>
       </c>
@@ -6762,8 +6925,10 @@
       <c r="E122" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" ht="137.75" spans="1:5">
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" ht="137.75" spans="1:7">
       <c r="A123" s="4" t="s">
         <v>485</v>
       </c>
@@ -6779,8 +6944,10 @@
       <c r="E123" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" ht="92.75" spans="1:5">
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" ht="92.75" spans="1:7">
       <c r="A124" s="4" t="s">
         <v>489</v>
       </c>
@@ -6796,8 +6963,10 @@
       <c r="E124" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" ht="274.75" spans="1:5">
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" ht="274.75" spans="1:7">
       <c r="A125" s="4" t="s">
         <v>493</v>
       </c>
@@ -6813,8 +6982,10 @@
       <c r="E125" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" ht="137.75" spans="1:5">
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" ht="137.75" spans="1:7">
       <c r="A126" s="4" t="s">
         <v>497</v>
       </c>
@@ -6830,8 +7001,10 @@
       <c r="E126" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" ht="152.75" spans="1:5">
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" ht="152.75" spans="1:7">
       <c r="A127" s="4" t="s">
         <v>501</v>
       </c>
@@ -6847,8 +7020,10 @@
       <c r="E127" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" ht="76.75" spans="1:5">
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" ht="76.75" spans="1:7">
       <c r="A128" s="4" t="s">
         <v>505</v>
       </c>
@@ -6864,8 +7039,10 @@
       <c r="E128" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" ht="107.75" spans="1:5">
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" ht="107.75" spans="1:7">
       <c r="A129" s="4" t="s">
         <v>509</v>
       </c>
@@ -6881,8 +7058,10 @@
       <c r="E129" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" ht="259.75" spans="1:5">
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" ht="259.75" spans="1:7">
       <c r="A130" s="4" t="s">
         <v>513</v>
       </c>
@@ -6898,8 +7077,10 @@
       <c r="E130" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" ht="107.75" spans="1:5">
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" ht="107.75" spans="1:7">
       <c r="A131" s="4" t="s">
         <v>517</v>
       </c>
@@ -6915,8 +7096,10 @@
       <c r="E131" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" ht="259.75" spans="1:5">
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" ht="259.75" spans="1:7">
       <c r="A132" s="4" t="s">
         <v>521</v>
       </c>
@@ -6932,8 +7115,10 @@
       <c r="E132" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" ht="198.75" spans="1:5">
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" ht="198.75" spans="1:7">
       <c r="A133" s="4" t="s">
         <v>525</v>
       </c>
@@ -6949,8 +7134,10 @@
       <c r="E133" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" ht="137.75" spans="1:5">
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" ht="137.75" spans="1:7">
       <c r="A134" s="4" t="s">
         <v>529</v>
       </c>
@@ -6966,8 +7153,10 @@
       <c r="E134" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" ht="107.75" spans="1:5">
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" ht="107.75" spans="1:7">
       <c r="A135" s="4" t="s">
         <v>533</v>
       </c>
@@ -6983,8 +7172,10 @@
       <c r="E135" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" ht="228.75" spans="1:5">
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" ht="228.75" spans="1:7">
       <c r="A136" s="4" t="s">
         <v>537</v>
       </c>
@@ -7000,8 +7191,10 @@
       <c r="E136" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" ht="183.75" spans="1:5">
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" ht="183.75" spans="1:7">
       <c r="A137" s="4" t="s">
         <v>541</v>
       </c>
@@ -7017,8 +7210,10 @@
       <c r="E137" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" ht="152.75" spans="1:5">
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" ht="152.75" spans="1:7">
       <c r="A138" s="4" t="s">
         <v>545</v>
       </c>
@@ -7034,8 +7229,10 @@
       <c r="E138" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" ht="92.75" spans="1:5">
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" ht="92.75" spans="1:7">
       <c r="A139" s="4" t="s">
         <v>549</v>
       </c>
@@ -7051,8 +7248,10 @@
       <c r="E139" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" ht="92.75" spans="1:5">
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" ht="92.75" spans="1:7">
       <c r="A140" s="4" t="s">
         <v>553</v>
       </c>
@@ -7068,8 +7267,10 @@
       <c r="E140" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" ht="107.75" spans="1:5">
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" ht="107.75" spans="1:7">
       <c r="A141" s="4" t="s">
         <v>557</v>
       </c>
@@ -7085,8 +7286,10 @@
       <c r="E141" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" ht="122.75" spans="1:5">
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" ht="122.75" spans="1:7">
       <c r="A142" s="4" t="s">
         <v>561</v>
       </c>
@@ -7102,8 +7305,10 @@
       <c r="E142" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" ht="107.75" spans="1:5">
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" ht="107.75" spans="1:7">
       <c r="A143" s="4" t="s">
         <v>565</v>
       </c>
@@ -7119,8 +7324,10 @@
       <c r="E143" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" ht="244.75" spans="1:5">
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" ht="244.75" spans="1:7">
       <c r="A144" s="4" t="s">
         <v>569</v>
       </c>
@@ -7136,8 +7343,10 @@
       <c r="E144" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" ht="213.75" spans="1:5">
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" ht="213.75" spans="1:7">
       <c r="A145" s="4" t="s">
         <v>573</v>
       </c>
@@ -7153,8 +7362,10 @@
       <c r="E145" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" ht="92.75" spans="1:5">
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" ht="92.75" spans="1:7">
       <c r="A146" s="4" t="s">
         <v>577</v>
       </c>
@@ -7170,8 +7381,10 @@
       <c r="E146" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" ht="92.75" spans="1:5">
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" ht="92.75" spans="1:7">
       <c r="A147" s="4" t="s">
         <v>581</v>
       </c>
@@ -7187,8 +7400,10 @@
       <c r="E147" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" ht="137.75" spans="1:5">
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" ht="137.75" spans="1:7">
       <c r="A148" s="4" t="s">
         <v>585</v>
       </c>
@@ -7204,8 +7419,10 @@
       <c r="E148" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" ht="92.75" spans="1:5">
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" ht="92.75" spans="1:7">
       <c r="A149" s="4" t="s">
         <v>589</v>
       </c>
@@ -7221,8 +7438,10 @@
       <c r="E149" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" ht="274.75" spans="1:5">
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" ht="274.75" spans="1:7">
       <c r="A150" s="4" t="s">
         <v>593</v>
       </c>
@@ -7238,8 +7457,10 @@
       <c r="E150" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" ht="168.75" spans="1:5">
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" ht="168.75" spans="1:7">
       <c r="A151" s="4" t="s">
         <v>597</v>
       </c>
@@ -7255,8 +7476,10 @@
       <c r="E151" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" ht="168.75" spans="1:5">
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" ht="168.75" spans="1:7">
       <c r="A152" s="4" t="s">
         <v>601</v>
       </c>
@@ -7272,8 +7495,10 @@
       <c r="E152" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" ht="122.75" spans="1:5">
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" ht="122.75" spans="1:7">
       <c r="A153" s="4" t="s">
         <v>605</v>
       </c>
@@ -7289,8 +7514,10 @@
       <c r="E153" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" ht="107.75" spans="1:5">
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" ht="107.75" spans="1:7">
       <c r="A154" s="4" t="s">
         <v>609</v>
       </c>
@@ -7306,8 +7533,10 @@
       <c r="E154" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" ht="107.75" spans="1:5">
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" ht="107.75" spans="1:7">
       <c r="A155" s="4" t="s">
         <v>613</v>
       </c>
@@ -7323,8 +7552,10 @@
       <c r="E155" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" ht="198.75" spans="1:5">
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" ht="198.75" spans="1:7">
       <c r="A156" s="4" t="s">
         <v>617</v>
       </c>
@@ -7340,8 +7571,10 @@
       <c r="E156" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" ht="92.75" spans="1:5">
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" ht="92.75" spans="1:7">
       <c r="A157" s="4" t="s">
         <v>621</v>
       </c>
@@ -7357,8 +7590,10 @@
       <c r="E157" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" ht="107.75" spans="1:5">
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" ht="107.75" spans="1:7">
       <c r="A158" s="4" t="s">
         <v>625</v>
       </c>
@@ -7374,8 +7609,10 @@
       <c r="E158" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" ht="198.75" spans="1:5">
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" ht="198.75" spans="1:7">
       <c r="A159" s="4" t="s">
         <v>629</v>
       </c>
@@ -7391,8 +7628,10 @@
       <c r="E159" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" ht="137.75" spans="1:5">
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" ht="137.75" spans="1:7">
       <c r="A160" s="4" t="s">
         <v>633</v>
       </c>
@@ -7408,8 +7647,10 @@
       <c r="E160" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" ht="122.75" spans="1:5">
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" ht="122.75" spans="1:7">
       <c r="A161" s="4" t="s">
         <v>637</v>
       </c>
@@ -7425,8 +7666,10 @@
       <c r="E161" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" ht="107.75" spans="1:5">
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162" ht="107.75" spans="1:7">
       <c r="A162" s="4" t="s">
         <v>641</v>
       </c>
@@ -7442,8 +7685,10 @@
       <c r="E162" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" ht="92.75" spans="1:5">
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" ht="92.75" spans="1:7">
       <c r="A163" s="4" t="s">
         <v>645</v>
       </c>
@@ -7459,8 +7704,10 @@
       <c r="E163" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" ht="244.75" spans="1:5">
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" ht="244.75" spans="1:7">
       <c r="A164" s="4" t="s">
         <v>649</v>
       </c>
@@ -7476,8 +7723,10 @@
       <c r="E164" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" ht="122.75" spans="1:5">
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" ht="122.75" spans="1:7">
       <c r="A165" s="4" t="s">
         <v>653</v>
       </c>
@@ -7493,8 +7742,10 @@
       <c r="E165" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" ht="107.75" spans="1:5">
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" ht="107.75" spans="1:7">
       <c r="A166" s="4" t="s">
         <v>657</v>
       </c>
@@ -7510,8 +7761,10 @@
       <c r="E166" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" ht="137.75" spans="1:5">
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" ht="137.75" spans="1:7">
       <c r="A167" s="4" t="s">
         <v>661</v>
       </c>
@@ -7527,8 +7780,10 @@
       <c r="E167" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" ht="107.75" spans="1:5">
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" ht="107.75" spans="1:7">
       <c r="A168" s="4" t="s">
         <v>665</v>
       </c>
@@ -7544,8 +7799,10 @@
       <c r="E168" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" ht="259.75" spans="1:5">
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" ht="259.75" spans="1:7">
       <c r="A169" s="4" t="s">
         <v>669</v>
       </c>
@@ -7561,8 +7818,10 @@
       <c r="E169" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" ht="122.75" spans="1:5">
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" ht="122.75" spans="1:7">
       <c r="A170" s="4" t="s">
         <v>673</v>
       </c>
@@ -7578,8 +7837,10 @@
       <c r="E170" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" ht="168.75" spans="1:5">
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" ht="168.75" spans="1:7">
       <c r="A171" s="4" t="s">
         <v>677</v>
       </c>
@@ -7595,8 +7856,10 @@
       <c r="E171" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" ht="168.75" spans="1:5">
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+    </row>
+    <row r="172" ht="168.75" spans="1:7">
       <c r="A172" s="4" t="s">
         <v>681</v>
       </c>
@@ -7612,8 +7875,10 @@
       <c r="E172" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" ht="92.75" spans="1:5">
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+    </row>
+    <row r="173" ht="92.75" spans="1:7">
       <c r="A173" s="4" t="s">
         <v>685</v>
       </c>
@@ -7629,8 +7894,10 @@
       <c r="E173" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" ht="107.75" spans="1:5">
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174" ht="107.75" spans="1:7">
       <c r="A174" s="4" t="s">
         <v>689</v>
       </c>
@@ -7646,8 +7913,10 @@
       <c r="E174" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" ht="137.75" spans="1:5">
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+    </row>
+    <row r="175" ht="137.75" spans="1:7">
       <c r="A175" s="4" t="s">
         <v>693</v>
       </c>
@@ -7663,8 +7932,10 @@
       <c r="E175" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" ht="107.75" spans="1:5">
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" ht="107.75" spans="1:7">
       <c r="A176" s="4" t="s">
         <v>697</v>
       </c>
@@ -7680,8 +7951,10 @@
       <c r="E176" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" ht="92.75" spans="1:5">
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+    </row>
+    <row r="177" ht="92.75" spans="1:7">
       <c r="A177" s="4" t="s">
         <v>701</v>
       </c>
@@ -7697,8 +7970,10 @@
       <c r="E177" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" ht="198.75" spans="1:5">
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+    </row>
+    <row r="178" ht="198.75" spans="1:7">
       <c r="A178" s="4" t="s">
         <v>705</v>
       </c>
@@ -7714,8 +7989,10 @@
       <c r="E178" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" ht="107.75" spans="1:5">
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" ht="107.75" spans="1:7">
       <c r="A179" s="4" t="s">
         <v>709</v>
       </c>
@@ -7731,8 +8008,10 @@
       <c r="E179" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" ht="259.75" spans="1:5">
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" ht="259.75" spans="1:7">
       <c r="A180" s="4" t="s">
         <v>713</v>
       </c>
@@ -7748,8 +8027,10 @@
       <c r="E180" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" ht="183.75" spans="1:5">
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" ht="183.75" spans="1:7">
       <c r="A181" s="4" t="s">
         <v>717</v>
       </c>
@@ -7765,8 +8046,10 @@
       <c r="E181" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" ht="213.75" spans="1:5">
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" ht="213.75" spans="1:7">
       <c r="A182" s="4" t="s">
         <v>721</v>
       </c>
@@ -7782,8 +8065,10 @@
       <c r="E182" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" ht="183.75" spans="1:5">
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" ht="183.75" spans="1:7">
       <c r="A183" s="4" t="s">
         <v>725</v>
       </c>
@@ -7799,8 +8084,10 @@
       <c r="E183" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" ht="122.75" spans="1:5">
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" ht="122.75" spans="1:7">
       <c r="A184" s="4" t="s">
         <v>729</v>
       </c>
@@ -7816,8 +8103,10 @@
       <c r="E184" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" ht="122.75" spans="1:5">
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185" ht="122.75" spans="1:7">
       <c r="A185" s="4" t="s">
         <v>733</v>
       </c>
@@ -7833,8 +8122,10 @@
       <c r="E185" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" ht="107.75" spans="1:5">
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" ht="107.75" spans="1:7">
       <c r="A186" s="4" t="s">
         <v>737</v>
       </c>
@@ -7850,8 +8141,10 @@
       <c r="E186" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" ht="122.75" spans="1:5">
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" ht="122.75" spans="1:7">
       <c r="A187" s="4" t="s">
         <v>741</v>
       </c>
@@ -7867,8 +8160,10 @@
       <c r="E187" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" ht="107.75" spans="1:5">
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+    </row>
+    <row r="188" ht="107.75" spans="1:7">
       <c r="A188" s="4" t="s">
         <v>745</v>
       </c>
@@ -7884,8 +8179,10 @@
       <c r="E188" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" ht="92.75" spans="1:5">
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189" ht="92.75" spans="1:7">
       <c r="A189" s="4" t="s">
         <v>749</v>
       </c>
@@ -7901,8 +8198,10 @@
       <c r="E189" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" ht="183.75" spans="1:5">
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+    </row>
+    <row r="190" ht="183.75" spans="1:7">
       <c r="A190" s="4" t="s">
         <v>753</v>
       </c>
@@ -7918,8 +8217,10 @@
       <c r="E190" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" ht="137.75" spans="1:5">
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191" ht="137.75" spans="1:7">
       <c r="A191" s="4" t="s">
         <v>757</v>
       </c>
@@ -7935,8 +8236,10 @@
       <c r="E191" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" ht="107.75" spans="1:5">
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192" ht="107.75" spans="1:7">
       <c r="A192" s="4" t="s">
         <v>761</v>
       </c>
@@ -7952,8 +8255,10 @@
       <c r="E192" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" ht="107.75" spans="1:5">
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193" ht="107.75" spans="1:7">
       <c r="A193" s="4" t="s">
         <v>765</v>
       </c>
@@ -7969,8 +8274,10 @@
       <c r="E193" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" ht="107.75" spans="1:5">
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" ht="107.75" spans="1:7">
       <c r="A194" s="4" t="s">
         <v>769</v>
       </c>
@@ -7986,8 +8293,10 @@
       <c r="E194" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" ht="137.75" spans="1:5">
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" ht="137.75" spans="1:7">
       <c r="A195" s="4" t="s">
         <v>773</v>
       </c>
@@ -8003,8 +8312,10 @@
       <c r="E195" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" ht="107.75" spans="1:5">
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" ht="107.75" spans="1:7">
       <c r="A196" s="4" t="s">
         <v>777</v>
       </c>
@@ -8020,8 +8331,10 @@
       <c r="E196" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" ht="92.75" spans="1:5">
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" ht="92.75" spans="1:7">
       <c r="A197" s="4" t="s">
         <v>781</v>
       </c>
@@ -8037,8 +8350,10 @@
       <c r="E197" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" ht="107.75" spans="1:5">
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" ht="107.75" spans="1:7">
       <c r="A198" s="4" t="s">
         <v>785</v>
       </c>
@@ -8054,8 +8369,10 @@
       <c r="E198" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" ht="107.75" spans="1:5">
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" ht="107.75" spans="1:7">
       <c r="A199" s="4" t="s">
         <v>789</v>
       </c>
@@ -8071,8 +8388,10 @@
       <c r="E199" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" ht="198.75" spans="1:5">
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" ht="198.75" spans="1:7">
       <c r="A200" s="4" t="s">
         <v>793</v>
       </c>
@@ -8088,8 +8407,10 @@
       <c r="E200" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" ht="92.75" spans="1:5">
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" ht="92.75" spans="1:7">
       <c r="A201" s="4" t="s">
         <v>797</v>
       </c>
@@ -8105,8 +8426,10 @@
       <c r="E201" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" ht="198.75" spans="1:5">
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" ht="198.75" spans="1:7">
       <c r="A202" s="4" t="s">
         <v>801</v>
       </c>
@@ -8122,8 +8445,10 @@
       <c r="E202" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" ht="122.75" spans="1:5">
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" ht="122.75" spans="1:7">
       <c r="A203" s="4" t="s">
         <v>805</v>
       </c>
@@ -8139,8 +8464,10 @@
       <c r="E203" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" ht="107.75" spans="1:5">
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" ht="107.75" spans="1:7">
       <c r="A204" s="4" t="s">
         <v>809</v>
       </c>
@@ -8156,8 +8483,10 @@
       <c r="E204" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" ht="107.75" spans="1:5">
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" ht="107.75" spans="1:7">
       <c r="A205" s="4" t="s">
         <v>813</v>
       </c>
@@ -8173,8 +8502,10 @@
       <c r="E205" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" ht="92.75" spans="1:5">
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" ht="92.75" spans="1:7">
       <c r="A206" s="4" t="s">
         <v>817</v>
       </c>
@@ -8190,8 +8521,10 @@
       <c r="E206" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" ht="92.75" spans="1:5">
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207" ht="92.75" spans="1:7">
       <c r="A207" s="4" t="s">
         <v>821</v>
       </c>
@@ -8207,8 +8540,10 @@
       <c r="E207" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" ht="107.75" spans="1:5">
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" ht="107.75" spans="1:7">
       <c r="A208" s="4" t="s">
         <v>825</v>
       </c>
@@ -8224,8 +8559,10 @@
       <c r="E208" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" ht="107.75" spans="1:5">
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" ht="107.75" spans="1:7">
       <c r="A209" s="4" t="s">
         <v>829</v>
       </c>
@@ -8241,8 +8578,10 @@
       <c r="E209" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" ht="259.75" spans="1:5">
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" ht="259.75" spans="1:7">
       <c r="A210" s="4" t="s">
         <v>833</v>
       </c>
@@ -8258,8 +8597,10 @@
       <c r="E210" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" ht="152.75" spans="1:5">
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" ht="152.75" spans="1:7">
       <c r="A211" s="4" t="s">
         <v>837</v>
       </c>
@@ -8275,8 +8616,10 @@
       <c r="E211" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" ht="107.75" spans="1:5">
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" ht="107.75" spans="1:7">
       <c r="A212" s="4" t="s">
         <v>841</v>
       </c>
@@ -8292,8 +8635,10 @@
       <c r="E212" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" ht="92.75" spans="1:5">
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" ht="92.75" spans="1:7">
       <c r="A213" s="4" t="s">
         <v>845</v>
       </c>
@@ -8309,8 +8654,10 @@
       <c r="E213" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" ht="168.75" spans="1:5">
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+    </row>
+    <row r="214" ht="168.75" spans="1:7">
       <c r="A214" s="4" t="s">
         <v>849</v>
       </c>
@@ -8326,8 +8673,10 @@
       <c r="E214" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" ht="152.75" spans="1:5">
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+    </row>
+    <row r="215" ht="152.75" spans="1:7">
       <c r="A215" s="4" t="s">
         <v>853</v>
       </c>
@@ -8343,8 +8692,10 @@
       <c r="E215" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" ht="107.75" spans="1:5">
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+    </row>
+    <row r="216" ht="107.75" spans="1:7">
       <c r="A216" s="4" t="s">
         <v>857</v>
       </c>
@@ -8360,8 +8711,10 @@
       <c r="E216" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" ht="92.75" spans="1:5">
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+    </row>
+    <row r="217" ht="92.75" spans="1:7">
       <c r="A217" s="4" t="s">
         <v>861</v>
       </c>
@@ -8377,8 +8730,10 @@
       <c r="E217" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" ht="289.75" spans="1:5">
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218" ht="289.75" spans="1:7">
       <c r="A218" s="4" t="s">
         <v>865</v>
       </c>
@@ -8394,8 +8749,10 @@
       <c r="E218" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" ht="152.75" spans="1:5">
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+    </row>
+    <row r="219" ht="152.75" spans="1:7">
       <c r="A219" s="4" t="s">
         <v>869</v>
       </c>
@@ -8411,8 +8768,10 @@
       <c r="E219" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" ht="137.75" spans="1:5">
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" ht="137.75" spans="1:7">
       <c r="A220" s="4" t="s">
         <v>873</v>
       </c>
@@ -8428,8 +8787,10 @@
       <c r="E220" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" ht="259.75" spans="1:5">
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" ht="259.75" spans="1:7">
       <c r="A221" s="4" t="s">
         <v>877</v>
       </c>
@@ -8445,8 +8806,10 @@
       <c r="E221" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" ht="274.75" spans="1:5">
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" ht="274.75" spans="1:7">
       <c r="A222" s="4" t="s">
         <v>881</v>
       </c>
@@ -8462,8 +8825,10 @@
       <c r="E222" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" ht="107.75" spans="1:5">
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" ht="107.75" spans="1:7">
       <c r="A223" s="4" t="s">
         <v>885</v>
       </c>
@@ -8479,47 +8844,53 @@
       <c r="E223" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" ht="107.75" spans="1:5">
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" ht="107.75" spans="1:7">
       <c r="A224" s="4" t="s">
         <v>889</v>
       </c>
       <c r="B224" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="E224" s="6">
+        <v>1</v>
+      </c>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" ht="92.75" spans="1:7">
+      <c r="A225" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="E225" s="6">
+        <v>1</v>
+      </c>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226" ht="107.75" spans="1:7">
+      <c r="A226" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="E224" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" ht="228.75" spans="1:5">
-      <c r="A225" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="E225" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" ht="122.75" spans="1:5">
-      <c r="A226" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>897</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>898</v>
@@ -8530,8 +8901,10 @@
       <c r="E226" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" ht="107.75" spans="1:5">
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+    </row>
+    <row r="227" ht="228.75" spans="1:7">
       <c r="A227" s="4" t="s">
         <v>900</v>
       </c>
@@ -8547,47 +8920,53 @@
       <c r="E227" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" ht="76.75" spans="1:5">
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+    </row>
+    <row r="228" ht="122.75" spans="1:7">
       <c r="A228" s="4" t="s">
         <v>904</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>138</v>
+        <v>905</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E228" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" ht="122.75" spans="1:5">
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+    </row>
+    <row r="229" ht="107.75" spans="1:7">
       <c r="A229" s="4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E229" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" ht="122.75" spans="1:5">
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+    </row>
+    <row r="230" ht="76.75" spans="1:7">
       <c r="A230" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>912</v>
+        <v>138</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>913</v>
@@ -8598,8 +8977,10 @@
       <c r="E230" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" ht="92.75" spans="1:5">
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+    </row>
+    <row r="231" ht="122.75" spans="1:7">
       <c r="A231" s="4" t="s">
         <v>915</v>
       </c>
@@ -8615,8 +8996,10 @@
       <c r="E231" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" ht="107.75" spans="1:5">
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+    </row>
+    <row r="232" ht="122.75" spans="1:7">
       <c r="A232" s="4" t="s">
         <v>919</v>
       </c>
@@ -8632,8 +9015,10 @@
       <c r="E232" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" ht="228.75" spans="1:5">
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+    </row>
+    <row r="233" ht="92.75" spans="1:7">
       <c r="A233" s="4" t="s">
         <v>923</v>
       </c>
@@ -8649,8 +9034,10 @@
       <c r="E233" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" ht="198.75" spans="1:5">
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+    </row>
+    <row r="234" ht="107.75" spans="1:7">
       <c r="A234" s="4" t="s">
         <v>927</v>
       </c>
@@ -8666,47 +9053,53 @@
       <c r="E234" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" ht="183.75" spans="1:5">
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235" ht="228.75" spans="1:7">
       <c r="A235" s="4" t="s">
         <v>931</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>438</v>
+        <v>932</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E235" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" ht="244.75" spans="1:5">
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+    </row>
+    <row r="236" ht="198.75" spans="1:7">
       <c r="A236" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E236" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" ht="107.75" spans="1:5">
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+    </row>
+    <row r="237" ht="183.75" spans="1:7">
       <c r="A237" s="4" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>939</v>
+        <v>438</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>940</v>
@@ -8717,47 +9110,53 @@
       <c r="E237" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" ht="76.75" spans="1:5">
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" ht="244.75" spans="1:7">
       <c r="A238" s="4" t="s">
         <v>942</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>90</v>
+        <v>943</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E238" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" ht="76.75" spans="1:5">
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+    </row>
+    <row r="239" ht="107.75" spans="1:7">
       <c r="A239" s="4" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E239" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" ht="92.75" spans="1:5">
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+    </row>
+    <row r="240" ht="76.75" spans="1:7">
       <c r="A240" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>950</v>
+        <v>90</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>951</v>
@@ -8768,8 +9167,10 @@
       <c r="E240" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" ht="137.75" spans="1:5">
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+    </row>
+    <row r="241" ht="76.75" spans="1:7">
       <c r="A241" s="4" t="s">
         <v>953</v>
       </c>
@@ -8785,8 +9186,10 @@
       <c r="E241" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" ht="76.75" spans="1:5">
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+    </row>
+    <row r="242" ht="92.75" spans="1:7">
       <c r="A242" s="4" t="s">
         <v>957</v>
       </c>
@@ -8802,47 +9205,53 @@
       <c r="E242" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" ht="213.75" spans="1:5">
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+    </row>
+    <row r="243" ht="137.75" spans="1:7">
       <c r="A243" s="4" t="s">
         <v>961</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>650</v>
+        <v>962</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E243" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" ht="92.75" spans="1:5">
+      <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
+    </row>
+    <row r="244" ht="76.75" spans="1:7">
       <c r="A244" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E244" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" ht="122.75" spans="1:5">
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+    </row>
+    <row r="245" ht="213.75" spans="1:7">
       <c r="A245" s="4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>969</v>
+        <v>650</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>970</v>
@@ -8853,8 +9262,10 @@
       <c r="E245" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" ht="107.75" spans="1:5">
+      <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
+    </row>
+    <row r="246" ht="92.75" spans="1:7">
       <c r="A246" s="4" t="s">
         <v>972</v>
       </c>
@@ -8870,8 +9281,10 @@
       <c r="E246" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" ht="92.75" spans="1:5">
+      <c r="F246" s="4"/>
+      <c r="G246" s="4"/>
+    </row>
+    <row r="247" ht="122.75" spans="1:7">
       <c r="A247" s="4" t="s">
         <v>976</v>
       </c>
@@ -8887,8 +9300,10 @@
       <c r="E247" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" ht="76.75" spans="1:5">
+      <c r="F247" s="4"/>
+      <c r="G247" s="4"/>
+    </row>
+    <row r="248" ht="107.75" spans="1:7">
       <c r="A248" s="4" t="s">
         <v>980</v>
       </c>
@@ -8904,8 +9319,10 @@
       <c r="E248" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" ht="228.75" spans="1:5">
+      <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
+    </row>
+    <row r="249" ht="92.75" spans="1:7">
       <c r="A249" s="4" t="s">
         <v>984</v>
       </c>
@@ -8921,8 +9338,10 @@
       <c r="E249" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" ht="107.75" spans="1:5">
+      <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
+    </row>
+    <row r="250" ht="76.75" spans="1:7">
       <c r="A250" s="4" t="s">
         <v>988</v>
       </c>
@@ -8938,8 +9357,10 @@
       <c r="E250" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" ht="198.75" spans="1:5">
+      <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
+    </row>
+    <row r="251" ht="228.75" spans="1:7">
       <c r="A251" s="4" t="s">
         <v>992</v>
       </c>
@@ -8955,132 +9376,148 @@
       <c r="E251" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" ht="92.75" spans="1:5">
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+    </row>
+    <row r="252" ht="107.75" spans="1:7">
       <c r="A252" s="4" t="s">
         <v>996</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>26</v>
+        <v>997</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E252" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" ht="92.75" spans="1:5">
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+    </row>
+    <row r="253" ht="198.75" spans="1:7">
       <c r="A253" s="4" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E253" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" ht="107.75" spans="1:5">
+      <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
+    </row>
+    <row r="254" ht="92.75" spans="1:7">
       <c r="A254" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>386</v>
+        <v>26</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E254" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" ht="92.75" spans="1:5">
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+    </row>
+    <row r="255" ht="92.75" spans="1:7">
       <c r="A255" s="4" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>70</v>
+        <v>1008</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E255" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" ht="122.75" spans="1:5">
+      <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
+    </row>
+    <row r="256" ht="107.75" spans="1:7">
       <c r="A256" s="4" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>286</v>
+        <v>386</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E256" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" ht="107.75" spans="1:5">
+      <c r="F256" s="4"/>
+      <c r="G256" s="4"/>
+    </row>
+    <row r="257" ht="92.75" spans="1:7">
       <c r="A257" s="4" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>574</v>
+        <v>70</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E257" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" ht="259.75" spans="1:5">
+      <c r="F257" s="4"/>
+      <c r="G257" s="4"/>
+    </row>
+    <row r="258" ht="122.75" spans="1:7">
       <c r="A258" s="4" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>1016</v>
+        <v>286</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E258" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" ht="228.75" spans="1:5">
+      <c r="F258" s="4"/>
+      <c r="G258" s="4"/>
+    </row>
+    <row r="259" ht="107.75" spans="1:7">
       <c r="A259" s="4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>1020</v>
+        <v>574</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>1021</v>
@@ -9091,64 +9528,72 @@
       <c r="E259" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" ht="183.75" spans="1:5">
+      <c r="F259" s="4"/>
+      <c r="G259" s="4"/>
+    </row>
+    <row r="260" ht="259.75" spans="1:7">
       <c r="A260" s="4" t="s">
         <v>1023</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>238</v>
+        <v>1024</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E260" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" ht="107.75" spans="1:5">
+      <c r="F260" s="4"/>
+      <c r="G260" s="4"/>
+    </row>
+    <row r="261" ht="228.75" spans="1:7">
       <c r="A261" s="4" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>570</v>
+        <v>1028</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E261" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" ht="244.75" spans="1:5">
+      <c r="F261" s="4"/>
+      <c r="G261" s="4"/>
+    </row>
+    <row r="262" ht="183.75" spans="1:7">
       <c r="A262" s="4" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>1030</v>
+        <v>238</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E262" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" ht="183.75" spans="1:5">
+      <c r="F262" s="4"/>
+      <c r="G262" s="4"/>
+    </row>
+    <row r="263" ht="107.75" spans="1:7">
       <c r="A263" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>1034</v>
+        <v>570</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>1035</v>
@@ -9159,8 +9604,10 @@
       <c r="E263" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" ht="304.75" spans="1:5">
+      <c r="F263" s="4"/>
+      <c r="G263" s="4"/>
+    </row>
+    <row r="264" ht="244.75" spans="1:7">
       <c r="A264" s="4" t="s">
         <v>1037</v>
       </c>
@@ -9176,8 +9623,10 @@
       <c r="E264" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" ht="137.75" spans="1:5">
+      <c r="F264" s="4"/>
+      <c r="G264" s="4"/>
+    </row>
+    <row r="265" ht="183.75" spans="1:7">
       <c r="A265" s="4" t="s">
         <v>1041</v>
       </c>
@@ -9193,8 +9642,10 @@
       <c r="E265" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" ht="244.75" spans="1:5">
+      <c r="F265" s="4"/>
+      <c r="G265" s="4"/>
+    </row>
+    <row r="266" ht="304.75" spans="1:7">
       <c r="A266" s="4" t="s">
         <v>1045</v>
       </c>
@@ -9210,115 +9661,129 @@
       <c r="E266" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" ht="168.75" spans="1:5">
+      <c r="F266" s="4"/>
+      <c r="G266" s="4"/>
+    </row>
+    <row r="267" ht="137.75" spans="1:7">
       <c r="A267" s="4" t="s">
         <v>1049</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>34</v>
+        <v>1050</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E267" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" ht="122.75" spans="1:5">
+      <c r="F267" s="4"/>
+      <c r="G267" s="4"/>
+    </row>
+    <row r="268" ht="244.75" spans="1:7">
       <c r="A268" s="4" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>46</v>
+        <v>1054</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E268" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" ht="92.75" spans="1:5">
+      <c r="F268" s="4"/>
+      <c r="G268" s="4"/>
+    </row>
+    <row r="269" ht="168.75" spans="1:7">
       <c r="A269" s="4" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>1056</v>
+        <v>34</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E269" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" ht="198.75" spans="1:5">
+      <c r="F269" s="4"/>
+      <c r="G269" s="4"/>
+    </row>
+    <row r="270" ht="122.75" spans="1:7">
       <c r="A270" s="4" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E270" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" ht="107.75" spans="1:5">
+      <c r="F270" s="4"/>
+      <c r="G270" s="4"/>
+    </row>
+    <row r="271" ht="92.75" spans="1:7">
       <c r="A271" s="4" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>674</v>
+        <v>1064</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E271" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" ht="259.75" spans="1:5">
+      <c r="F271" s="4"/>
+      <c r="G271" s="4"/>
+    </row>
+    <row r="272" ht="198.75" spans="1:7">
       <c r="A272" s="4" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>1066</v>
+        <v>270</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E272" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" ht="107.75" spans="1:5">
+      <c r="F272" s="4"/>
+      <c r="G272" s="4"/>
+    </row>
+    <row r="273" ht="107.75" spans="1:7">
       <c r="A273" s="4" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>1070</v>
+        <v>674</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>1071</v>
@@ -9329,8 +9794,10 @@
       <c r="E273" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" ht="107.75" spans="1:5">
+      <c r="F273" s="4"/>
+      <c r="G273" s="4"/>
+    </row>
+    <row r="274" ht="259.75" spans="1:7">
       <c r="A274" s="4" t="s">
         <v>1073</v>
       </c>
@@ -9346,8 +9813,10 @@
       <c r="E274" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" ht="76.75" spans="1:5">
+      <c r="F274" s="4"/>
+      <c r="G274" s="4"/>
+    </row>
+    <row r="275" ht="107.75" spans="1:7">
       <c r="A275" s="4" t="s">
         <v>1077</v>
       </c>
@@ -9363,8 +9832,10 @@
       <c r="E275" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" ht="259.75" spans="1:5">
+      <c r="F275" s="4"/>
+      <c r="G275" s="4"/>
+    </row>
+    <row r="276" ht="107.75" spans="1:7">
       <c r="A276" s="4" t="s">
         <v>1081</v>
       </c>
@@ -9380,8 +9851,10 @@
       <c r="E276" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" ht="61.75" spans="1:5">
+      <c r="F276" s="4"/>
+      <c r="G276" s="4"/>
+    </row>
+    <row r="277" ht="76.75" spans="1:7">
       <c r="A277" s="4" t="s">
         <v>1085</v>
       </c>
@@ -9397,8 +9870,10 @@
       <c r="E277" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" ht="122.75" spans="1:5">
+      <c r="F277" s="4"/>
+      <c r="G277" s="4"/>
+    </row>
+    <row r="278" ht="259.75" spans="1:7">
       <c r="A278" s="4" t="s">
         <v>1089</v>
       </c>
@@ -9414,81 +9889,91 @@
       <c r="E278" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" ht="122.75" spans="1:5">
+      <c r="F278" s="4"/>
+      <c r="G278" s="4"/>
+    </row>
+    <row r="279" ht="61.75" spans="1:7">
       <c r="A279" s="4" t="s">
         <v>1093</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>854</v>
+        <v>1094</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E279" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" ht="107.75" spans="1:5">
+      <c r="F279" s="4"/>
+      <c r="G279" s="4"/>
+    </row>
+    <row r="280" ht="122.75" spans="1:7">
       <c r="A280" s="4" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E280" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" ht="76.75" spans="1:5">
+      <c r="F280" s="4"/>
+      <c r="G280" s="4"/>
+    </row>
+    <row r="281" ht="122.75" spans="1:7">
       <c r="A281" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>318</v>
+        <v>854</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E281" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" ht="122.75" spans="1:5">
+      <c r="F281" s="4"/>
+      <c r="G281" s="4"/>
+    </row>
+    <row r="282" ht="107.75" spans="1:7">
       <c r="A282" s="4" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E282" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" ht="107.75" spans="1:5">
+      <c r="F282" s="4"/>
+      <c r="G282" s="4"/>
+    </row>
+    <row r="283" ht="76.75" spans="1:7">
       <c r="A283" s="4" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>1108</v>
+        <v>318</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>1109</v>
@@ -9499,8 +9984,10 @@
       <c r="E283" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" ht="168.75" spans="1:5">
+      <c r="F283" s="4"/>
+      <c r="G283" s="4"/>
+    </row>
+    <row r="284" ht="122.75" spans="1:7">
       <c r="A284" s="4" t="s">
         <v>1111</v>
       </c>
@@ -9516,81 +10003,91 @@
       <c r="E284" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" ht="137.75" spans="1:5">
+      <c r="F284" s="4"/>
+      <c r="G284" s="4"/>
+    </row>
+    <row r="285" ht="107.75" spans="1:7">
       <c r="A285" s="4" t="s">
         <v>1115</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>342</v>
+        <v>1116</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E285" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" ht="76.75" spans="1:5">
+      <c r="F285" s="4"/>
+      <c r="G285" s="4"/>
+    </row>
+    <row r="286" ht="168.75" spans="1:7">
       <c r="A286" s="4" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E286" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" ht="92.75" spans="1:5">
+      <c r="F286" s="4"/>
+      <c r="G286" s="4"/>
+    </row>
+    <row r="287" ht="137.75" spans="1:7">
       <c r="A287" s="4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>434</v>
+        <v>342</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E287" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" ht="137.75" spans="1:5">
+      <c r="F287" s="4"/>
+      <c r="G287" s="4"/>
+    </row>
+    <row r="288" ht="76.75" spans="1:7">
       <c r="A288" s="4" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E288" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" ht="76.75" spans="1:5">
+      <c r="F288" s="4"/>
+      <c r="G288" s="4"/>
+    </row>
+    <row r="289" ht="92.75" spans="1:7">
       <c r="A289" s="4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>1130</v>
+        <v>434</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>1131</v>
@@ -9601,8 +10098,10 @@
       <c r="E289" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" ht="244.75" spans="1:5">
+      <c r="F289" s="4"/>
+      <c r="G289" s="4"/>
+    </row>
+    <row r="290" ht="137.75" spans="1:7">
       <c r="A290" s="4" t="s">
         <v>1133</v>
       </c>
@@ -9618,8 +10117,10 @@
       <c r="E290" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" ht="274.75" spans="1:5">
+      <c r="F290" s="4"/>
+      <c r="G290" s="4"/>
+    </row>
+    <row r="291" ht="76.75" spans="1:7">
       <c r="A291" s="4" t="s">
         <v>1137</v>
       </c>
@@ -9635,8 +10136,10 @@
       <c r="E291" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" ht="244.75" spans="1:5">
+      <c r="F291" s="4"/>
+      <c r="G291" s="4"/>
+    </row>
+    <row r="292" ht="244.75" spans="1:7">
       <c r="A292" s="4" t="s">
         <v>1141</v>
       </c>
@@ -9652,193 +10155,255 @@
       <c r="E292" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" ht="274.75" spans="1:5">
+      <c r="F292" s="4"/>
+      <c r="G292" s="4"/>
+    </row>
+    <row r="293" ht="274.75" spans="1:7">
       <c r="A293" s="4" t="s">
         <v>1145</v>
       </c>
       <c r="B293" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C293" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="D293" s="4" t="s">
         <v>1147</v>
-      </c>
-      <c r="D293" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="E293" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" ht="244.75" spans="1:5">
+      <c r="F293" s="4"/>
+      <c r="G293" s="4"/>
+    </row>
+    <row r="294" ht="244.75" spans="1:7">
       <c r="A294" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B294" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="C294" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="D294" s="4" t="s">
         <v>1151</v>
-      </c>
-      <c r="D294" s="4" t="s">
-        <v>1152</v>
       </c>
       <c r="E294" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" ht="213.75" spans="1:5">
+      <c r="F294" s="4"/>
+      <c r="G294" s="4"/>
+    </row>
+    <row r="295" ht="274.75" spans="1:7">
       <c r="A295" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B295" s="4" t="s">
         <v>1153</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="C295" s="4" t="s">
         <v>1154</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="D295" s="4" t="s">
         <v>1155</v>
-      </c>
-      <c r="D295" s="4" t="s">
-        <v>1156</v>
       </c>
       <c r="E295" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" ht="259.75" spans="1:5">
+      <c r="F295" s="4"/>
+      <c r="G295" s="4"/>
+    </row>
+    <row r="296" ht="244.75" spans="1:7">
       <c r="A296" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B296" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="C296" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="D296" s="4" t="s">
         <v>1159</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>1160</v>
       </c>
       <c r="E296" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" ht="244.75" spans="1:5">
+      <c r="F296" s="4"/>
+      <c r="G296" s="4"/>
+    </row>
+    <row r="297" ht="213.75" spans="1:7">
       <c r="A297" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B297" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="C297" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="D297" s="4" t="s">
         <v>1163</v>
-      </c>
-      <c r="D297" s="4" t="s">
-        <v>1164</v>
       </c>
       <c r="E297" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" ht="274.75" spans="1:5">
+      <c r="F297" s="4"/>
+      <c r="G297" s="4"/>
+    </row>
+    <row r="298" ht="259.75" spans="1:7">
       <c r="A298" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B298" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="C298" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="D298" s="4" t="s">
         <v>1167</v>
-      </c>
-      <c r="D298" s="4" t="s">
-        <v>1168</v>
       </c>
       <c r="E298" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" ht="335.75" spans="1:5">
+      <c r="F298" s="4"/>
+      <c r="G298" s="4"/>
+    </row>
+    <row r="299" ht="244.75" spans="1:7">
       <c r="A299" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B299" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="C299" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="C299" s="4" t="s">
+      <c r="D299" s="4" t="s">
         <v>1171</v>
-      </c>
-      <c r="D299" s="4" t="s">
-        <v>1172</v>
       </c>
       <c r="E299" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" ht="244.75" spans="1:5">
+      <c r="F299" s="4"/>
+      <c r="G299" s="4"/>
+    </row>
+    <row r="300" ht="274.75" spans="1:7">
       <c r="A300" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B300" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="C300" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="C300" s="4" t="s">
+      <c r="D300" s="4" t="s">
         <v>1175</v>
-      </c>
-      <c r="D300" s="4" t="s">
-        <v>1176</v>
       </c>
       <c r="E300" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" ht="274.75" spans="1:5">
+      <c r="F300" s="4"/>
+      <c r="G300" s="4"/>
+    </row>
+    <row r="301" ht="335.75" spans="1:7">
       <c r="A301" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B301" s="4" t="s">
         <v>1177</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="C301" s="4" t="s">
         <v>1178</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="D301" s="4" t="s">
         <v>1179</v>
-      </c>
-      <c r="D301" s="4" t="s">
-        <v>1180</v>
       </c>
       <c r="E301" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" ht="228.75" spans="1:5">
+      <c r="F301" s="4"/>
+      <c r="G301" s="4"/>
+    </row>
+    <row r="302" ht="244.75" spans="1:7">
       <c r="A302" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B302" s="4" t="s">
         <v>1181</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="C302" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="C302" s="4" t="s">
+      <c r="D302" s="4" t="s">
         <v>1183</v>
-      </c>
-      <c r="D302" s="4" t="s">
-        <v>1184</v>
       </c>
       <c r="E302" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" ht="289.75" spans="1:5">
+      <c r="F302" s="4"/>
+      <c r="G302" s="4"/>
+    </row>
+    <row r="303" ht="274.75" spans="1:7">
       <c r="A303" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B303" s="4" t="s">
         <v>1185</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="C303" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="C303" s="4" t="s">
+      <c r="D303" s="4" t="s">
         <v>1187</v>
-      </c>
-      <c r="D303" s="4" t="s">
-        <v>1188</v>
       </c>
       <c r="E303" s="6">
         <v>0</v>
       </c>
+      <c r="F303" s="4"/>
+      <c r="G303" s="4"/>
+    </row>
+    <row r="304" ht="228.75" spans="1:7">
+      <c r="A304" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E304" s="6">
+        <v>0</v>
+      </c>
+      <c r="F304" s="4"/>
+      <c r="G304" s="4"/>
+    </row>
+    <row r="305" ht="289.75" spans="1:7">
+      <c r="A305" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E305" s="6">
+        <v>0</v>
+      </c>
+      <c r="F305" s="4"/>
+      <c r="G305" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
